--- a/Table_A1.xlsx
+++ b/Table_A1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugres-my.sharepoint.com/personal/e_rmeza_ms_ugr_es/Documents/Documentos/PHD_UGR/Articulo_Nora/Matriz_Datos/ECSMGE24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{A6917E4D-CB12-48AC-9938-7164E055B0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCAA4EE-483C-419D-9849-6CEE65C5E8C1}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{A6917E4D-CB12-48AC-9938-7164E055B0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AF0FB38-90EE-48AE-A6EE-BB07E669B5F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3E233A5-FB69-4CCD-A0E1-86A467734A78}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla_A1" sheetId="2" r:id="rId1"/>
+    <sheet name=" Table A.1." sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
